--- a/BinomialTree2.xlsx
+++ b/BinomialTree2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadiaaiaseh/Desktop/QuantTexts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadiaaiaseh/Desktop/Quanty-Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB01D87-2A07-D149-9FC0-C7644D82789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED32013F-E6D8-2243-B972-683B082A92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="840" windowWidth="28040" windowHeight="17260" xr2:uid="{BE850533-C268-0D4A-B184-AA0AF50B5AE6}"/>
+    <workbookView xWindow="12240" yWindow="1440" windowWidth="28040" windowHeight="17260" xr2:uid="{BE850533-C268-0D4A-B184-AA0AF50B5AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D765FB95-3E88-1D48-978F-911A2FBBA07E}">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -517,28 +519,28 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>F5*DownMove</f>
-        <v>1</v>
+        <f>F5*UpMove</f>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -559,19 +561,19 @@
       </c>
       <c r="I6">
         <f>H5*DownMove</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L7" si="1">I6*UpMove</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -669,160 +671,160 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14">
         <f>1/(1+B11)*(UpProb*F14+DownProb*F15)</f>
-        <v>63.110448387500007</v>
+        <v>17.967667200000005</v>
       </c>
       <c r="F14">
         <f>1/(1+B11)*(UpProb*G14+DownProb*G15)</f>
-        <v>61.655515500000007</v>
+        <v>20.590080000000007</v>
       </c>
       <c r="G14">
         <f>1/(1+B11)*(UpProb*H14+DownProb*H15)</f>
-        <v>59.595820000000003</v>
+        <v>22.420480000000005</v>
       </c>
       <c r="H14">
         <f>1/(1+B11)*(I14*UpProb+DownProb*I15)</f>
-        <v>56.520800000000001</v>
+        <v>22.374400000000005</v>
       </c>
       <c r="I14">
         <f>1/(1+B11)*(UpProb*J14+DownProb*J15)</f>
-        <v>51.552</v>
+        <v>18.944000000000003</v>
       </c>
       <c r="J14">
-        <f>1/(1+B11)*(UpProb*K14+DownProb*K15)</f>
-        <v>42.88</v>
+        <f t="shared" ref="J14:J19" si="3">1/(1+B11)*(UpProb*K14+DownProb*K15)</f>
+        <v>10.880000000000003</v>
       </c>
       <c r="K14">
         <f>1/(1+B11)*(UpProb*L14+DownProb*L15)</f>
-        <v>27.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L21" si="3">MAX(0,IF(CP=1,L4-Strike,Strike-L4))</f>
+        <f t="shared" ref="L14:L21" si="4">MAX(0,IF(CP=1,L4-Strike,Strike-L4))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F15">
-        <f>1/(1+B12)*(UpProb*G15+DownProb*G16)</f>
-        <v>96.12060546875</v>
+        <f>1/(1+B11)*(UpProb*G15+DownProb*G16)</f>
+        <v>24.329088000000009</v>
       </c>
       <c r="G15">
-        <f>1/(1+B12)*(UpProb*H15+DownProb*H16)</f>
-        <v>94.54296875</v>
+        <f>1/(1+B11)*(UpProb*H15+DownProb*H16)</f>
+        <v>29.05472000000001</v>
       </c>
       <c r="H15">
-        <f>1/(1+B12)*(I15*UpProb+DownProb*I16)</f>
-        <v>92.46875</v>
+        <f>1/(1+B11)*(I15*UpProb+DownProb*I16)</f>
+        <v>33.676800000000007</v>
       </c>
       <c r="I15">
-        <f>1/(1+B12)*(UpProb*J15+DownProb*J16)</f>
-        <v>89.75</v>
+        <f>1/(1+B11)*(UpProb*J15+DownProb*J16)</f>
+        <v>36.992000000000004</v>
       </c>
       <c r="J15">
-        <f>1/(1+B12)*(UpProb*K15+DownProb*K16)</f>
-        <v>86</v>
+        <f>1/(1+B11)*(UpProb*K15+DownProb*K16)</f>
+        <v>36.480000000000004</v>
       </c>
       <c r="K15">
-        <f>1/(1+B12)*(UpProb*L15+DownProb*L16)</f>
-        <v>80</v>
+        <f>(1/(1+B11))*(UpProb*L15+DownProb*L16)</f>
+        <v>27.200000000000003</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G16">
-        <f>1/(1+B13)*(UpProb*H16+DownProb*H17)</f>
-        <v>97.6982421875</v>
+        <f>1/(1+B11)*(UpProb*H16+DownProb*H17)</f>
+        <v>31.768000000000008</v>
       </c>
       <c r="H16">
-        <f>1/(1+B13)*(I16*UpProb+DownProb*I17)</f>
-        <v>96.6171875</v>
+        <f>1/(1+B11)*(I16*UpProb+DownProb*I17)</f>
+        <v>38.960000000000008</v>
       </c>
       <c r="I16">
-        <f>1/(1+B13)*(UpProb*J16+DownProb*J17)</f>
-        <v>95.1875</v>
+        <f>1/(1+B11)*(UpProb*J16+DownProb*J17)</f>
+        <v>47.2</v>
       </c>
       <c r="J16">
-        <f>1/(1+B13)*(UpProb*K16+DownProb*K17)</f>
-        <v>93.5</v>
+        <f>1/(1+B11)*(UpProb*K16+DownProb*K17)</f>
+        <v>56</v>
       </c>
       <c r="K16">
-        <f>1/(1+B13)*(UpProb*L16+DownProb*L17)</f>
-        <v>92</v>
+        <f>(1/(1+B11))*(UpProb*L16+DownProb*L17)</f>
+        <v>64</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H17">
-        <f>1/(1+B14)*(I17*UpProb+DownProb*I18)</f>
-        <v>98.779296875</v>
+        <f>1/(1+B11)*(I17*UpProb+DownProb*I18)</f>
+        <v>40.460000000000008</v>
       </c>
       <c r="I17">
-        <f>1/(1+B14)*(UpProb*J17+DownProb*J18)</f>
-        <v>98.046875</v>
+        <f>1/(1+B11)*(UpProb*J17+DownProb*J18)</f>
+        <v>50.2</v>
       </c>
       <c r="J17">
-        <f>1/(1+B14)*(UpProb*K17+DownProb*K18)</f>
-        <v>96.875</v>
+        <f>1/(1+B11)*(UpProb*K17+DownProb*K18)</f>
+        <v>62</v>
       </c>
       <c r="K17">
-        <f>1/(1+B14)*(UpProb*L17+DownProb*L18)</f>
-        <v>95</v>
+        <f>(1/(1+B11))*(UpProb*L17+DownProb*L18)</f>
+        <v>76</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I18">
-        <f>1/(1+B15)*(UpProb*J18+DownProb*J19)</f>
-        <v>99.51171875</v>
+        <f>1/(1+B11)*(UpProb*J18+DownProb*J19)</f>
+        <v>50.95</v>
       </c>
       <c r="J18">
-        <f>1/(1+B15)*(UpProb*K18+DownProb*K19)</f>
-        <v>99.21875</v>
+        <f>1/(1+B11)*(UpProb*K18+DownProb*K19)</f>
+        <v>63.5</v>
       </c>
       <c r="K18">
-        <f>1/(1+B15)*(UpProb*L18+DownProb*L19)</f>
-        <v>98.75</v>
+        <f>(1/(1+B11))*(UpProb*L18+DownProb*L19)</f>
+        <v>79</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J19">
-        <f>1/(1+B16)*(UpProb*K19+DownProb*K20)</f>
-        <v>99.8046875</v>
+        <f>1/(1+B11)*(UpProb*K19+DownProb*K20)</f>
+        <v>63.875</v>
       </c>
       <c r="K19">
-        <f>1/(1+B16)*(UpProb*L19+DownProb*L20)</f>
-        <v>99.6875</v>
+        <f>(1/(1+B11))*(UpProb*L19+DownProb*L20)</f>
+        <v>79.75</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.5</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.2">
       <c r="K20">
-        <f>1/(1+B17)*(UpProb*L20+DownProb*L21)</f>
-        <v>99.921875</v>
+        <f>(1/(1+B11))*(UpProb*L20+DownProb*L21)</f>
+        <v>79.9375</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.875</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.2">
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.96875</v>
       </c>
     </row>
